--- a/SQLPlan.xlsx
+++ b/SQLPlan.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\szena\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D4F65FF-2B01-4963-B98A-4A59746245B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC9A5CC2-1D54-4BE7-B0C2-864D02568414}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{09CBA4D3-A3FF-4421-9EAC-9E3D4B6FD877}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="21">
   <si>
     <t>Users</t>
   </si>
@@ -57,18 +57,12 @@
     <t>Games</t>
   </si>
   <si>
-    <t>High Scores</t>
-  </si>
-  <si>
     <t>scoreId - int(11) - PRIMARY KEY</t>
   </si>
   <si>
     <t>scorePoints - int(11)</t>
   </si>
   <si>
-    <t>scoreApproved - bit(1)</t>
-  </si>
-  <si>
     <t>gameId - int(11) - PRIMARY KEY</t>
   </si>
   <si>
@@ -94,6 +88,15 @@
   </si>
   <si>
     <t>oGId - FOREIGN KEY - Games</t>
+  </si>
+  <si>
+    <t>Approved High Scores</t>
+  </si>
+  <si>
+    <t>Not Approved High Scores</t>
+  </si>
+  <si>
+    <t>userAdmin - bit(1)</t>
   </si>
 </sst>
 </file>
@@ -152,11 +155,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -166,7 +167,16 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normál" xfId="0" builtinId="0"/>
@@ -481,43 +491,50 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9CB61A62-1D0C-4230-B58B-2D2289BC22C8}">
-  <dimension ref="B2:M10"/>
+  <dimension ref="B2:Q21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="M12" sqref="M12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="4" max="4" width="16.85546875" customWidth="1"/>
     <col min="7" max="7" width="23.5703125" customWidth="1"/>
-    <col min="10" max="10" width="18" customWidth="1"/>
+    <col min="9" max="9" width="20.42578125" customWidth="1"/>
+    <col min="10" max="10" width="13.5703125" customWidth="1"/>
     <col min="13" max="13" width="17.140625" customWidth="1"/>
+    <col min="16" max="16" width="17.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
       <c r="E2" s="2" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
       <c r="H2" s="2" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
       <c r="K2" s="2" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="L2" s="2"/>
       <c r="M2" s="2"/>
-    </row>
-    <row r="3" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="N2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="O2" s="2"/>
+      <c r="P2" s="2"/>
+    </row>
+    <row r="3" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
@@ -530,8 +547,11 @@
       <c r="K3" s="2"/>
       <c r="L3" s="2"/>
       <c r="M3" s="2"/>
-    </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="N3" s="2"/>
+      <c r="O3" s="2"/>
+      <c r="P3" s="2"/>
+    </row>
+    <row r="4" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
@@ -544,137 +564,217 @@
       <c r="K4" s="2"/>
       <c r="L4" s="2"/>
       <c r="M4" s="2"/>
-    </row>
-    <row r="5" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="N4" s="2"/>
+      <c r="O4" s="2"/>
+      <c r="P4" s="2"/>
+    </row>
+    <row r="5" spans="2:17" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B5" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
       <c r="E5" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
       <c r="H5" s="3" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="I5" s="3"/>
       <c r="J5" s="3"/>
       <c r="K5" s="3" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="L5" s="3"/>
       <c r="M5" s="3"/>
-    </row>
-    <row r="6" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="N5" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="O5" s="3"/>
+      <c r="P5" s="3"/>
+    </row>
+    <row r="6" spans="2:17" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B6" s="3" t="s">
         <v>3</v>
       </c>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
       <c r="E6" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
       <c r="H6" s="3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="I6" s="3"/>
       <c r="J6" s="3"/>
-      <c r="K6" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="L6" s="4"/>
-      <c r="M6" s="4"/>
-    </row>
-    <row r="7" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="K6" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L6" s="3"/>
+      <c r="M6" s="3"/>
+      <c r="N6" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="O6" s="4"/>
+      <c r="P6" s="4"/>
+    </row>
+    <row r="7" spans="2:17" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B7" s="3" t="s">
         <v>2</v>
       </c>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
       <c r="E7" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
       <c r="H7" s="3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I7" s="3"/>
       <c r="J7" s="3"/>
       <c r="K7" s="3" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="L7" s="3"/>
       <c r="M7" s="3"/>
-    </row>
-    <row r="8" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="N7" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="O7" s="3"/>
+      <c r="P7" s="3"/>
+    </row>
+    <row r="8" spans="2:17" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B8" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
       <c r="E8" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F8" s="3"/>
       <c r="G8" s="3"/>
-      <c r="H8" s="5"/>
-      <c r="I8" s="5"/>
-      <c r="J8" s="5"/>
-      <c r="K8" s="5"/>
-      <c r="L8" s="5"/>
-      <c r="M8" s="5"/>
-    </row>
-    <row r="9" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="H8" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="1"/>
+      <c r="L8" s="1"/>
+      <c r="M8" s="1"/>
+    </row>
+    <row r="9" spans="2:17" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B9" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
-      <c r="E9" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="5"/>
-      <c r="J9" s="5"/>
-      <c r="K9" s="5"/>
-      <c r="L9" s="5"/>
-      <c r="M9" s="5"/>
-    </row>
-    <row r="10" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="8"/>
+      <c r="I9" s="8"/>
+      <c r="J9" s="8"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
+    </row>
+    <row r="10" spans="2:17" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="B10" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+    </row>
+    <row r="16" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="L16" s="5"/>
+      <c r="M16" s="5"/>
+      <c r="N16" s="5"/>
+      <c r="O16" s="5"/>
+      <c r="P16" s="5"/>
+      <c r="Q16" s="5"/>
+    </row>
+    <row r="17" spans="12:17" x14ac:dyDescent="0.25">
+      <c r="L17" s="5"/>
+      <c r="M17" s="5"/>
+      <c r="N17" s="5"/>
+      <c r="O17" s="5"/>
+      <c r="P17" s="5"/>
+      <c r="Q17" s="5"/>
+    </row>
+    <row r="18" spans="12:17" x14ac:dyDescent="0.25">
+      <c r="L18" s="5"/>
+      <c r="M18" s="5"/>
+      <c r="N18" s="5"/>
+      <c r="O18" s="5"/>
+      <c r="P18" s="5"/>
+      <c r="Q18" s="5"/>
+    </row>
+    <row r="19" spans="12:17" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="L19" s="6"/>
+      <c r="M19" s="6"/>
+      <c r="N19" s="6"/>
+      <c r="O19" s="6"/>
+      <c r="P19" s="6"/>
+      <c r="Q19" s="6"/>
+    </row>
+    <row r="20" spans="12:17" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="L20" s="6"/>
+      <c r="M20" s="6"/>
+      <c r="N20" s="6"/>
+      <c r="O20" s="7"/>
+      <c r="P20" s="7"/>
+      <c r="Q20" s="7"/>
+    </row>
+    <row r="21" spans="12:17" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="L21" s="6"/>
+      <c r="M21" s="6"/>
+      <c r="N21" s="6"/>
+      <c r="O21" s="6"/>
+      <c r="P21" s="6"/>
+      <c r="Q21" s="6"/>
     </row>
   </sheetData>
-  <mergeCells count="21">
-    <mergeCell ref="H2:J4"/>
-    <mergeCell ref="E7:G7"/>
-    <mergeCell ref="H5:J5"/>
-    <mergeCell ref="H6:J6"/>
-    <mergeCell ref="H7:J7"/>
-    <mergeCell ref="K2:M4"/>
-    <mergeCell ref="K5:M5"/>
-    <mergeCell ref="K6:M6"/>
+  <mergeCells count="33">
+    <mergeCell ref="N6:P6"/>
     <mergeCell ref="K7:M7"/>
-    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="N7:P7"/>
     <mergeCell ref="B10:D10"/>
     <mergeCell ref="E2:G4"/>
     <mergeCell ref="E5:G5"/>
     <mergeCell ref="E6:G6"/>
     <mergeCell ref="E8:G8"/>
-    <mergeCell ref="E9:G9"/>
     <mergeCell ref="B2:D4"/>
     <mergeCell ref="B6:D6"/>
     <mergeCell ref="B7:D7"/>
     <mergeCell ref="B5:D5"/>
     <mergeCell ref="B8:D8"/>
+    <mergeCell ref="O16:Q18"/>
+    <mergeCell ref="O19:Q19"/>
+    <mergeCell ref="O20:Q20"/>
+    <mergeCell ref="O21:Q21"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="H2:J4"/>
+    <mergeCell ref="H5:J5"/>
+    <mergeCell ref="H6:J6"/>
+    <mergeCell ref="H7:J7"/>
+    <mergeCell ref="H8:J8"/>
+    <mergeCell ref="K2:M4"/>
+    <mergeCell ref="N2:P4"/>
+    <mergeCell ref="K5:M5"/>
+    <mergeCell ref="N5:P5"/>
+    <mergeCell ref="K6:M6"/>
+    <mergeCell ref="L16:N18"/>
+    <mergeCell ref="E7:G7"/>
+    <mergeCell ref="L19:N19"/>
+    <mergeCell ref="L20:N20"/>
+    <mergeCell ref="L21:N21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
